--- a/app/resource/xlsx/major_proposal_template_5_stage2.xlsx
+++ b/app/resource/xlsx/major_proposal_template_5_stage2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF8B3BE-69AC-408F-BD17-CC8D80DA1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D6C625-FA20-48F2-A785-8E5688FCE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -994,9 +994,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1007,6 +1004,12 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,22 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1253,6 +1240,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2060,10 +2055,10 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2076,72 +2071,75 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2149,9 +2147,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3773,8 +3768,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y502"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A398" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D410" sqref="D410:E411"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A403" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F415" sqref="F415:G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,68 +3786,86 @@
     <col min="19" max="19" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
+    <row r="27" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="147" t="s">
+      <c r="F37" s="135" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="146" t="s">
+      <c r="F39" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="146" t="s">
+      <c r="F40" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="146" t="s">
+      <c r="F41" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3860,10 +3873,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
@@ -3872,16 +3885,16 @@
       <c r="A45" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140" t="e">
+      <c r="B45" s="133"/>
+      <c r="C45" s="133" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -3889,10 +3902,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -3955,15 +3968,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="139"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -3988,26 +4001,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="137"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="137"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4015,93 +4028,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="138"/>
-      <c r="S54" s="138"/>
-      <c r="T54" s="138"/>
-      <c r="U54" s="138"/>
-      <c r="V54" s="138"/>
-      <c r="W54" s="138"/>
-      <c r="X54" s="138"/>
+      <c r="Q54" s="131"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="131"/>
+      <c r="T54" s="131"/>
+      <c r="U54" s="131"/>
+      <c r="V54" s="131"/>
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="130" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="M56" s="134"/>
-      <c r="N56" s="134"/>
-      <c r="O56" s="134"/>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="M56" s="127"/>
+      <c r="N56" s="127"/>
+      <c r="O56" s="127"/>
+      <c r="P56" s="127"/>
+      <c r="Q56" s="127"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="127"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="M58" s="134"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="134"/>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="134"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="127"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
+      <c r="S59" s="127"/>
+      <c r="T59" s="127"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4119,30 +4132,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4154,16 +4167,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4173,32 +4186,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="137" t="s">
+      <c r="B64" s="130" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4207,16 +4220,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4237,29 +4250,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="137"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
+      <c r="A69" s="130"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4408,24 +4421,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="130"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,16 +4487,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="137" t="s">
+      <c r="B91" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="137"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="137"/>
-      <c r="I91" s="137"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="130"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="130"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4492,25 +4505,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="137"/>
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="137"/>
-      <c r="I92" s="137"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="137"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="137"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="130"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -6561,16 +6574,16 @@
         <f t="shared" ref="L272:L329" si="2">IF(M272&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M272" s="136" t="s">
+      <c r="M272" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="N272" s="136"/>
-      <c r="O272" s="136"/>
-      <c r="P272" s="136"/>
-      <c r="Q272" s="136"/>
-      <c r="R272" s="136"/>
-      <c r="S272" s="136"/>
-      <c r="T272" s="136"/>
+      <c r="N272" s="129"/>
+      <c r="O272" s="129"/>
+      <c r="P272" s="129"/>
+      <c r="Q272" s="129"/>
+      <c r="R272" s="129"/>
+      <c r="S272" s="129"/>
+      <c r="T272" s="129"/>
     </row>
     <row r="273" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="31"/>
@@ -7130,16 +7143,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M319" s="136" t="s">
+      <c r="M319" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="N319" s="136"/>
-      <c r="O319" s="136"/>
-      <c r="P319" s="136"/>
-      <c r="Q319" s="136"/>
-      <c r="R319" s="136"/>
-      <c r="S319" s="136"/>
-      <c r="T319" s="136"/>
+      <c r="N319" s="129"/>
+      <c r="O319" s="129"/>
+      <c r="P319" s="129"/>
+      <c r="Q319" s="129"/>
+      <c r="R319" s="129"/>
+      <c r="S319" s="129"/>
+      <c r="T319" s="129"/>
     </row>
     <row r="320" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="31" t="str">
@@ -7196,16 +7209,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M323" s="137" t="s">
+      <c r="M323" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="N323" s="137"/>
-      <c r="O323" s="137"/>
-      <c r="P323" s="137"/>
-      <c r="Q323" s="137"/>
-      <c r="R323" s="137"/>
-      <c r="S323" s="137"/>
-      <c r="T323" s="137"/>
+      <c r="N323" s="130"/>
+      <c r="O323" s="130"/>
+      <c r="P323" s="130"/>
+      <c r="Q323" s="130"/>
+      <c r="R323" s="130"/>
+      <c r="S323" s="130"/>
+      <c r="T323" s="130"/>
     </row>
     <row r="324" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="31"/>
@@ -7252,16 +7265,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M327" s="136" t="s">
+      <c r="M327" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="N327" s="136"/>
-      <c r="O327" s="136"/>
-      <c r="P327" s="136"/>
-      <c r="Q327" s="136"/>
-      <c r="R327" s="136"/>
-      <c r="S327" s="136"/>
-      <c r="T327" s="136"/>
+      <c r="N327" s="129"/>
+      <c r="O327" s="129"/>
+      <c r="P327" s="129"/>
+      <c r="Q327" s="129"/>
+      <c r="R327" s="129"/>
+      <c r="S327" s="129"/>
+      <c r="T327" s="129"/>
     </row>
     <row r="328" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="31"/>
@@ -7281,28 +7294,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M329" s="136" t="s">
+      <c r="M329" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="N329" s="136"/>
-      <c r="O329" s="136"/>
-      <c r="P329" s="136"/>
-      <c r="Q329" s="136"/>
-      <c r="R329" s="136"/>
-      <c r="S329" s="136"/>
-      <c r="T329" s="136"/>
+      <c r="N329" s="129"/>
+      <c r="O329" s="129"/>
+      <c r="P329" s="129"/>
+      <c r="Q329" s="129"/>
+      <c r="R329" s="129"/>
+      <c r="S329" s="129"/>
+      <c r="T329" s="129"/>
     </row>
     <row r="330" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="31"/>
       <c r="L330" s="31"/>
-      <c r="M330" s="136"/>
-      <c r="N330" s="136"/>
-      <c r="O330" s="136"/>
-      <c r="P330" s="136"/>
-      <c r="Q330" s="136"/>
-      <c r="R330" s="136"/>
-      <c r="S330" s="136"/>
-      <c r="T330" s="136"/>
+      <c r="M330" s="129"/>
+      <c r="N330" s="129"/>
+      <c r="O330" s="129"/>
+      <c r="P330" s="129"/>
+      <c r="Q330" s="129"/>
+      <c r="R330" s="129"/>
+      <c r="S330" s="129"/>
+      <c r="T330" s="129"/>
     </row>
     <row r="331" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="31"/>
@@ -7834,16 +7847,16 @@
     </row>
     <row r="363" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="60"/>
-      <c r="B363" s="137" t="s">
+      <c r="B363" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="C363" s="137"/>
-      <c r="D363" s="137"/>
-      <c r="E363" s="137"/>
-      <c r="F363" s="137"/>
-      <c r="G363" s="137"/>
-      <c r="H363" s="137"/>
-      <c r="I363" s="137"/>
+      <c r="C363" s="130"/>
+      <c r="D363" s="130"/>
+      <c r="E363" s="130"/>
+      <c r="F363" s="130"/>
+      <c r="G363" s="130"/>
+      <c r="H363" s="130"/>
+      <c r="I363" s="130"/>
       <c r="K363" s="59"/>
       <c r="N363" s="42"/>
       <c r="O363" s="42"/>
@@ -7851,14 +7864,14 @@
     </row>
     <row r="364" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="60"/>
-      <c r="B364" s="137"/>
-      <c r="C364" s="137"/>
-      <c r="D364" s="137"/>
-      <c r="E364" s="137"/>
-      <c r="F364" s="137"/>
-      <c r="G364" s="137"/>
-      <c r="H364" s="137"/>
-      <c r="I364" s="137"/>
+      <c r="B364" s="130"/>
+      <c r="C364" s="130"/>
+      <c r="D364" s="130"/>
+      <c r="E364" s="130"/>
+      <c r="F364" s="130"/>
+      <c r="G364" s="130"/>
+      <c r="H364" s="130"/>
+      <c r="I364" s="130"/>
       <c r="K364" s="59"/>
       <c r="M364" s="42"/>
       <c r="N364" s="42"/>
@@ -7867,14 +7880,14 @@
     </row>
     <row r="365" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="60"/>
-      <c r="B365" s="137"/>
-      <c r="C365" s="137"/>
-      <c r="D365" s="137"/>
-      <c r="E365" s="137"/>
-      <c r="F365" s="137"/>
-      <c r="G365" s="137"/>
-      <c r="H365" s="137"/>
-      <c r="I365" s="137"/>
+      <c r="B365" s="130"/>
+      <c r="C365" s="130"/>
+      <c r="D365" s="130"/>
+      <c r="E365" s="130"/>
+      <c r="F365" s="130"/>
+      <c r="G365" s="130"/>
+      <c r="H365" s="130"/>
+      <c r="I365" s="130"/>
       <c r="K365" s="59"/>
       <c r="M365" s="42"/>
       <c r="N365" s="42"/>
@@ -7883,14 +7896,14 @@
     </row>
     <row r="366" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="60"/>
-      <c r="B366" s="137"/>
-      <c r="C366" s="137"/>
-      <c r="D366" s="137"/>
-      <c r="E366" s="137"/>
-      <c r="F366" s="137"/>
-      <c r="G366" s="137"/>
-      <c r="H366" s="137"/>
-      <c r="I366" s="137"/>
+      <c r="B366" s="130"/>
+      <c r="C366" s="130"/>
+      <c r="D366" s="130"/>
+      <c r="E366" s="130"/>
+      <c r="F366" s="130"/>
+      <c r="G366" s="130"/>
+      <c r="H366" s="130"/>
+      <c r="I366" s="130"/>
       <c r="K366" s="59"/>
       <c r="M366" s="42"/>
       <c r="N366" s="42"/>
@@ -7933,16 +7946,16 @@
     </row>
     <row r="369" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="60"/>
-      <c r="B369" s="137" t="s">
+      <c r="B369" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C369" s="137"/>
-      <c r="D369" s="137"/>
-      <c r="E369" s="137"/>
-      <c r="F369" s="137"/>
-      <c r="G369" s="137"/>
-      <c r="H369" s="137"/>
-      <c r="I369" s="137"/>
+      <c r="C369" s="130"/>
+      <c r="D369" s="130"/>
+      <c r="E369" s="130"/>
+      <c r="F369" s="130"/>
+      <c r="G369" s="130"/>
+      <c r="H369" s="130"/>
+      <c r="I369" s="130"/>
       <c r="K369" s="59"/>
       <c r="M369" s="42"/>
       <c r="N369" s="42"/>
@@ -7951,14 +7964,14 @@
     </row>
     <row r="370" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="60"/>
-      <c r="B370" s="137"/>
-      <c r="C370" s="137"/>
-      <c r="D370" s="137"/>
-      <c r="E370" s="137"/>
-      <c r="F370" s="137"/>
-      <c r="G370" s="137"/>
-      <c r="H370" s="137"/>
-      <c r="I370" s="137"/>
+      <c r="B370" s="130"/>
+      <c r="C370" s="130"/>
+      <c r="D370" s="130"/>
+      <c r="E370" s="130"/>
+      <c r="F370" s="130"/>
+      <c r="G370" s="130"/>
+      <c r="H370" s="130"/>
+      <c r="I370" s="130"/>
       <c r="K370" s="59" t="s">
         <v>217</v>
       </c>
@@ -8081,16 +8094,16 @@
     </row>
     <row r="377" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="59"/>
-      <c r="B377" s="136" t="s">
+      <c r="B377" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="C377" s="136"/>
-      <c r="D377" s="136"/>
-      <c r="E377" s="136"/>
-      <c r="F377" s="136"/>
-      <c r="G377" s="136"/>
-      <c r="H377" s="136"/>
-      <c r="I377" s="136"/>
+      <c r="C377" s="129"/>
+      <c r="D377" s="129"/>
+      <c r="E377" s="129"/>
+      <c r="F377" s="129"/>
+      <c r="G377" s="129"/>
+      <c r="H377" s="129"/>
+      <c r="I377" s="129"/>
       <c r="K377" s="59" t="s">
         <v>274</v>
       </c>
@@ -8331,16 +8344,16 @@
     </row>
     <row r="390" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="59"/>
-      <c r="B390" s="140" t="s">
+      <c r="B390" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C390" s="140"/>
-      <c r="D390" s="140"/>
-      <c r="E390" s="140"/>
-      <c r="F390" s="140"/>
-      <c r="G390" s="140"/>
-      <c r="H390" s="140"/>
-      <c r="I390" s="140"/>
+      <c r="C390" s="133"/>
+      <c r="D390" s="133"/>
+      <c r="E390" s="133"/>
+      <c r="F390" s="133"/>
+      <c r="G390" s="133"/>
+      <c r="H390" s="133"/>
+      <c r="I390" s="133"/>
       <c r="K390" t="s">
         <v>65</v>
       </c>
@@ -8399,16 +8412,16 @@
       <c r="P394" s="42"/>
     </row>
     <row r="395" spans="1:24" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="136" t="s">
+      <c r="B395" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="C395" s="136"/>
-      <c r="D395" s="136"/>
-      <c r="E395" s="136"/>
-      <c r="F395" s="136"/>
-      <c r="G395" s="136"/>
-      <c r="H395" s="136"/>
-      <c r="I395" s="136"/>
+      <c r="C395" s="129"/>
+      <c r="D395" s="129"/>
+      <c r="E395" s="129"/>
+      <c r="F395" s="129"/>
+      <c r="G395" s="129"/>
+      <c r="H395" s="129"/>
+      <c r="I395" s="129"/>
       <c r="K395" s="59"/>
       <c r="L395" s="61"/>
     </row>
@@ -8417,14 +8430,14 @@
         <v>142</v>
       </c>
       <c r="C396" s="77"/>
-      <c r="D396" s="123" t="s">
+      <c r="D396" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="E396" s="123"/>
-      <c r="F396" s="123" t="s">
+      <c r="E396" s="142"/>
+      <c r="F396" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="G396" s="123"/>
+      <c r="G396" s="142"/>
       <c r="H396" s="29"/>
       <c r="O396" s="25"/>
       <c r="P396" s="29"/>
@@ -8434,14 +8447,14 @@
         <v>138</v>
       </c>
       <c r="C397" s="54"/>
-      <c r="D397" s="124" t="s">
+      <c r="D397" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="E397" s="124"/>
-      <c r="F397" s="122">
+      <c r="E397" s="143"/>
+      <c r="F397" s="144">
         <v>10000000</v>
       </c>
-      <c r="G397" s="122"/>
+      <c r="G397" s="144"/>
       <c r="H397" s="48"/>
       <c r="I397" s="25"/>
       <c r="O397" s="47"/>
@@ -8452,14 +8465,14 @@
         <v>140</v>
       </c>
       <c r="C398" s="54"/>
-      <c r="D398" s="124" t="s">
+      <c r="D398" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="E398" s="124"/>
-      <c r="F398" s="122">
+      <c r="E398" s="143"/>
+      <c r="F398" s="144">
         <v>20000000</v>
       </c>
-      <c r="G398" s="122"/>
+      <c r="G398" s="144"/>
       <c r="H398" s="48"/>
       <c r="O398" s="47"/>
       <c r="P398" s="66"/>
@@ -8528,16 +8541,16 @@
     </row>
     <row r="402" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
-      <c r="B402" s="137" t="s">
+      <c r="B402" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="C402" s="137"/>
-      <c r="D402" s="137"/>
-      <c r="E402" s="137"/>
-      <c r="F402" s="137"/>
-      <c r="G402" s="137"/>
-      <c r="H402" s="137"/>
-      <c r="I402" s="137"/>
+      <c r="C402" s="130"/>
+      <c r="D402" s="130"/>
+      <c r="E402" s="130"/>
+      <c r="F402" s="130"/>
+      <c r="G402" s="130"/>
+      <c r="H402" s="130"/>
+      <c r="I402" s="130"/>
       <c r="P402" s="66"/>
       <c r="Q402" s="35"/>
       <c r="R402" s="35"/>
@@ -8546,39 +8559,39 @@
     </row>
     <row r="403" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
-      <c r="B403" s="137"/>
-      <c r="C403" s="137"/>
-      <c r="D403" s="137"/>
-      <c r="E403" s="137"/>
-      <c r="F403" s="137"/>
-      <c r="G403" s="137"/>
-      <c r="H403" s="137"/>
-      <c r="I403" s="137"/>
+      <c r="B403" s="130"/>
+      <c r="C403" s="130"/>
+      <c r="D403" s="130"/>
+      <c r="E403" s="130"/>
+      <c r="F403" s="130"/>
+      <c r="G403" s="130"/>
+      <c r="H403" s="130"/>
+      <c r="I403" s="130"/>
       <c r="P403" s="66"/>
     </row>
     <row r="404" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="B404" s="137"/>
-      <c r="C404" s="137"/>
-      <c r="D404" s="137"/>
-      <c r="E404" s="137"/>
-      <c r="F404" s="137"/>
-      <c r="G404" s="137"/>
-      <c r="H404" s="137"/>
-      <c r="I404" s="137"/>
+      <c r="B404" s="130"/>
+      <c r="C404" s="130"/>
+      <c r="D404" s="130"/>
+      <c r="E404" s="130"/>
+      <c r="F404" s="130"/>
+      <c r="G404" s="130"/>
+      <c r="H404" s="130"/>
+      <c r="I404" s="130"/>
       <c r="P404" s="66"/>
       <c r="S404" s="34"/>
     </row>
     <row r="405" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
-      <c r="B405" s="137"/>
-      <c r="C405" s="137"/>
-      <c r="D405" s="137"/>
-      <c r="E405" s="137"/>
-      <c r="F405" s="137"/>
-      <c r="G405" s="137"/>
-      <c r="H405" s="137"/>
-      <c r="I405" s="137"/>
+      <c r="B405" s="130"/>
+      <c r="C405" s="130"/>
+      <c r="D405" s="130"/>
+      <c r="E405" s="130"/>
+      <c r="F405" s="130"/>
+      <c r="G405" s="130"/>
+      <c r="H405" s="130"/>
+      <c r="I405" s="130"/>
       <c r="P405" s="66"/>
       <c r="Q405" s="16"/>
       <c r="R405" s="16"/>
@@ -8624,38 +8637,38 @@
       <c r="P407" s="42"/>
     </row>
     <row r="408" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="137" t="s">
+      <c r="B408" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="C408" s="137"/>
-      <c r="D408" s="137"/>
-      <c r="E408" s="137"/>
-      <c r="F408" s="137"/>
-      <c r="G408" s="137"/>
-      <c r="H408" s="137"/>
-      <c r="I408" s="137"/>
+      <c r="C408" s="130"/>
+      <c r="D408" s="130"/>
+      <c r="E408" s="130"/>
+      <c r="F408" s="130"/>
+      <c r="G408" s="130"/>
+      <c r="H408" s="130"/>
+      <c r="I408" s="130"/>
     </row>
     <row r="409" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="137"/>
-      <c r="C409" s="137"/>
-      <c r="D409" s="137"/>
-      <c r="E409" s="137"/>
-      <c r="F409" s="137"/>
-      <c r="G409" s="137"/>
-      <c r="H409" s="137"/>
-      <c r="I409" s="137"/>
+      <c r="B409" s="130"/>
+      <c r="C409" s="130"/>
+      <c r="D409" s="130"/>
+      <c r="E409" s="130"/>
+      <c r="F409" s="130"/>
+      <c r="G409" s="130"/>
+      <c r="H409" s="130"/>
+      <c r="I409" s="130"/>
     </row>
     <row r="410" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="133" t="s">
+      <c r="B410" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C410" s="140"/>
+      <c r="D410" s="122"/>
+      <c r="E410" s="123"/>
+      <c r="F410" s="122"/>
+      <c r="G410" s="123"/>
+      <c r="H410" s="140" t="s">
         <v>281</v>
-      </c>
-      <c r="C410" s="133"/>
-      <c r="D410" s="125"/>
-      <c r="E410" s="126"/>
-      <c r="F410" s="125"/>
-      <c r="G410" s="126"/>
-      <c r="H410" s="133" t="s">
-        <v>282</v>
       </c>
       <c r="I410" s="25"/>
       <c r="L410" s="59"/>
@@ -8665,13 +8678,13 @@
       <c r="P410" s="115"/>
     </row>
     <row r="411" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="133"/>
-      <c r="C411" s="133"/>
-      <c r="D411" s="127"/>
-      <c r="E411" s="128"/>
-      <c r="F411" s="127"/>
-      <c r="G411" s="128"/>
-      <c r="H411" s="133"/>
+      <c r="B411" s="140"/>
+      <c r="C411" s="140"/>
+      <c r="D411" s="124"/>
+      <c r="E411" s="125"/>
+      <c r="F411" s="124"/>
+      <c r="G411" s="125"/>
+      <c r="H411" s="140"/>
       <c r="I411" s="25"/>
       <c r="L411" s="59"/>
       <c r="M411" s="59"/>
@@ -8680,8 +8693,8 @@
       <c r="P411" s="115"/>
     </row>
     <row r="412" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="129"/>
-      <c r="C412" s="129"/>
+      <c r="B412" s="126"/>
+      <c r="C412" s="126"/>
       <c r="D412" s="118"/>
       <c r="E412" s="119"/>
       <c r="F412" s="118"/>
@@ -8695,8 +8708,8 @@
       <c r="P412" s="115"/>
     </row>
     <row r="413" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="131"/>
-      <c r="C413" s="132"/>
+      <c r="B413" s="138"/>
+      <c r="C413" s="139"/>
       <c r="D413" s="118"/>
       <c r="E413" s="119"/>
       <c r="F413" s="118"/>
@@ -8710,8 +8723,8 @@
       <c r="P413" s="115"/>
     </row>
     <row r="414" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="131"/>
-      <c r="C414" s="132"/>
+      <c r="B414" s="138"/>
+      <c r="C414" s="139"/>
       <c r="D414" s="118"/>
       <c r="E414" s="119"/>
       <c r="F414" s="118"/>
@@ -8725,8 +8738,8 @@
       <c r="P414" s="115"/>
     </row>
     <row r="415" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="131"/>
-      <c r="C415" s="132"/>
+      <c r="B415" s="138"/>
+      <c r="C415" s="139"/>
       <c r="D415" s="118"/>
       <c r="E415" s="119"/>
       <c r="F415" s="118"/>
@@ -8740,8 +8753,8 @@
       <c r="P415" s="115"/>
     </row>
     <row r="416" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="131"/>
-      <c r="C416" s="132"/>
+      <c r="B416" s="138"/>
+      <c r="C416" s="139"/>
       <c r="D416" s="118"/>
       <c r="E416" s="119"/>
       <c r="F416" s="118"/>
@@ -8755,10 +8768,10 @@
       <c r="P416" s="115"/>
     </row>
     <row r="417" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="129" t="s">
-        <v>283</v>
-      </c>
-      <c r="C417" s="129"/>
+      <c r="B417" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="C417" s="126"/>
       <c r="D417" s="120"/>
       <c r="E417" s="121"/>
       <c r="F417" s="118"/>
@@ -8772,14 +8785,14 @@
       <c r="P417" s="115"/>
     </row>
     <row r="418" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="130" t="s">
-        <v>284</v>
-      </c>
-      <c r="C418" s="130"/>
-      <c r="D418" s="130"/>
-      <c r="E418" s="130"/>
-      <c r="F418" s="130"/>
-      <c r="G418" s="130"/>
+      <c r="B418" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C418" s="137"/>
+      <c r="D418" s="137"/>
+      <c r="E418" s="137"/>
+      <c r="F418" s="137"/>
+      <c r="G418" s="137"/>
       <c r="H418" s="116"/>
       <c r="I418" s="25"/>
       <c r="L418" s="59"/>
@@ -8789,14 +8802,14 @@
       <c r="P418" s="115"/>
     </row>
     <row r="419" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="130" t="s">
-        <v>285</v>
-      </c>
-      <c r="C419" s="130"/>
-      <c r="D419" s="130"/>
-      <c r="E419" s="130"/>
-      <c r="F419" s="130"/>
-      <c r="G419" s="130"/>
+      <c r="B419" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C419" s="137"/>
+      <c r="D419" s="137"/>
+      <c r="E419" s="137"/>
+      <c r="F419" s="137"/>
+      <c r="G419" s="137"/>
       <c r="H419" s="116"/>
       <c r="I419" s="25"/>
       <c r="L419" s="59"/>
@@ -8851,28 +8864,28 @@
       <c r="P422" s="66"/>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B423" s="137" t="s">
+      <c r="B423" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C423" s="137"/>
-      <c r="D423" s="137"/>
-      <c r="E423" s="137"/>
-      <c r="F423" s="137"/>
-      <c r="G423" s="137"/>
-      <c r="H423" s="137"/>
-      <c r="I423" s="137"/>
+      <c r="C423" s="130"/>
+      <c r="D423" s="130"/>
+      <c r="E423" s="130"/>
+      <c r="F423" s="130"/>
+      <c r="G423" s="130"/>
+      <c r="H423" s="130"/>
+      <c r="I423" s="130"/>
       <c r="P423" s="66"/>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="46"/>
-      <c r="B424" s="137"/>
-      <c r="C424" s="137"/>
-      <c r="D424" s="137"/>
-      <c r="E424" s="137"/>
-      <c r="F424" s="137"/>
-      <c r="G424" s="137"/>
-      <c r="H424" s="137"/>
-      <c r="I424" s="137"/>
+      <c r="B424" s="130"/>
+      <c r="C424" s="130"/>
+      <c r="D424" s="130"/>
+      <c r="E424" s="130"/>
+      <c r="F424" s="130"/>
+      <c r="G424" s="130"/>
+      <c r="H424" s="130"/>
+      <c r="I424" s="130"/>
       <c r="P424" s="66"/>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.25">
@@ -9043,7 +9056,9 @@
       <c r="K437" s="45"/>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B438" s="35"/>
+      <c r="B438" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="K438" s="45"/>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.25">
@@ -9114,11 +9129,11 @@
       <c r="B450" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F450" s="142">
+      <c r="F450" s="136">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="G450" s="142"/>
+        <v>45357</v>
+      </c>
+      <c r="G450" s="136"/>
       <c r="K450" s="45"/>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
@@ -9138,374 +9153,374 @@
       <c r="A453" s="28">
         <v>1</v>
       </c>
-      <c r="B453" s="141" t="s">
+      <c r="B453" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="C453" s="141"/>
-      <c r="D453" s="141"/>
-      <c r="E453" s="141"/>
-      <c r="F453" s="141"/>
-      <c r="G453" s="141"/>
-      <c r="H453" s="141"/>
-      <c r="I453" s="141"/>
+      <c r="C453" s="134"/>
+      <c r="D453" s="134"/>
+      <c r="E453" s="134"/>
+      <c r="F453" s="134"/>
+      <c r="G453" s="134"/>
+      <c r="H453" s="134"/>
+      <c r="I453" s="134"/>
     </row>
     <row r="454" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="28">
         <v>2</v>
       </c>
-      <c r="B454" s="141" t="s">
+      <c r="B454" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="C454" s="141"/>
-      <c r="D454" s="141"/>
-      <c r="E454" s="141"/>
-      <c r="F454" s="141"/>
-      <c r="G454" s="141"/>
-      <c r="H454" s="141"/>
-      <c r="I454" s="141"/>
+      <c r="C454" s="134"/>
+      <c r="D454" s="134"/>
+      <c r="E454" s="134"/>
+      <c r="F454" s="134"/>
+      <c r="G454" s="134"/>
+      <c r="H454" s="134"/>
+      <c r="I454" s="134"/>
     </row>
     <row r="455" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="28">
         <v>3</v>
       </c>
-      <c r="B455" s="141" t="s">
+      <c r="B455" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="C455" s="141"/>
-      <c r="D455" s="141"/>
-      <c r="E455" s="141"/>
-      <c r="F455" s="141"/>
-      <c r="G455" s="141"/>
-      <c r="H455" s="141"/>
-      <c r="I455" s="141"/>
+      <c r="C455" s="134"/>
+      <c r="D455" s="134"/>
+      <c r="E455" s="134"/>
+      <c r="F455" s="134"/>
+      <c r="G455" s="134"/>
+      <c r="H455" s="134"/>
+      <c r="I455" s="134"/>
     </row>
     <row r="456" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="28">
         <v>4</v>
       </c>
-      <c r="B456" s="141" t="s">
+      <c r="B456" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C456" s="141"/>
-      <c r="D456" s="141"/>
-      <c r="E456" s="141"/>
-      <c r="F456" s="141"/>
-      <c r="G456" s="141"/>
-      <c r="H456" s="141"/>
-      <c r="I456" s="141"/>
+      <c r="C456" s="134"/>
+      <c r="D456" s="134"/>
+      <c r="E456" s="134"/>
+      <c r="F456" s="134"/>
+      <c r="G456" s="134"/>
+      <c r="H456" s="134"/>
+      <c r="I456" s="134"/>
     </row>
     <row r="457" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="28">
         <v>5</v>
       </c>
-      <c r="B457" s="141" t="s">
+      <c r="B457" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="C457" s="141"/>
-      <c r="D457" s="141"/>
-      <c r="E457" s="141"/>
-      <c r="F457" s="141"/>
-      <c r="G457" s="141"/>
-      <c r="H457" s="141"/>
-      <c r="I457" s="141"/>
+      <c r="C457" s="134"/>
+      <c r="D457" s="134"/>
+      <c r="E457" s="134"/>
+      <c r="F457" s="134"/>
+      <c r="G457" s="134"/>
+      <c r="H457" s="134"/>
+      <c r="I457" s="134"/>
     </row>
     <row r="458" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="28"/>
-      <c r="B458" s="141" t="s">
+      <c r="B458" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="C458" s="141"/>
-      <c r="D458" s="141"/>
-      <c r="E458" s="141"/>
-      <c r="F458" s="141"/>
-      <c r="G458" s="141"/>
-      <c r="H458" s="141"/>
-      <c r="I458" s="141"/>
+      <c r="C458" s="134"/>
+      <c r="D458" s="134"/>
+      <c r="E458" s="134"/>
+      <c r="F458" s="134"/>
+      <c r="G458" s="134"/>
+      <c r="H458" s="134"/>
+      <c r="I458" s="134"/>
     </row>
     <row r="459" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="28"/>
-      <c r="B459" s="141" t="s">
+      <c r="B459" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="141"/>
-      <c r="D459" s="141"/>
-      <c r="E459" s="141"/>
-      <c r="F459" s="141"/>
-      <c r="G459" s="141"/>
-      <c r="H459" s="141"/>
-      <c r="I459" s="141"/>
+      <c r="C459" s="134"/>
+      <c r="D459" s="134"/>
+      <c r="E459" s="134"/>
+      <c r="F459" s="134"/>
+      <c r="G459" s="134"/>
+      <c r="H459" s="134"/>
+      <c r="I459" s="134"/>
     </row>
     <row r="460" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="28"/>
-      <c r="B460" s="141" t="s">
+      <c r="B460" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C460" s="141"/>
-      <c r="D460" s="141"/>
-      <c r="E460" s="141"/>
-      <c r="F460" s="141"/>
-      <c r="G460" s="141"/>
-      <c r="H460" s="141"/>
-      <c r="I460" s="141"/>
+      <c r="C460" s="134"/>
+      <c r="D460" s="134"/>
+      <c r="E460" s="134"/>
+      <c r="F460" s="134"/>
+      <c r="G460" s="134"/>
+      <c r="H460" s="134"/>
+      <c r="I460" s="134"/>
     </row>
     <row r="461" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="28">
         <v>6</v>
       </c>
-      <c r="B461" s="141" t="s">
+      <c r="B461" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="C461" s="141"/>
-      <c r="D461" s="141"/>
-      <c r="E461" s="141"/>
-      <c r="F461" s="141"/>
-      <c r="G461" s="141"/>
-      <c r="H461" s="141"/>
-      <c r="I461" s="141"/>
+      <c r="C461" s="134"/>
+      <c r="D461" s="134"/>
+      <c r="E461" s="134"/>
+      <c r="F461" s="134"/>
+      <c r="G461" s="134"/>
+      <c r="H461" s="134"/>
+      <c r="I461" s="134"/>
     </row>
     <row r="462" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="28"/>
-      <c r="B462" s="141" t="s">
+      <c r="B462" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="C462" s="141"/>
-      <c r="D462" s="141"/>
-      <c r="E462" s="141"/>
-      <c r="F462" s="141"/>
-      <c r="G462" s="141"/>
-      <c r="H462" s="141"/>
-      <c r="I462" s="141"/>
+      <c r="C462" s="134"/>
+      <c r="D462" s="134"/>
+      <c r="E462" s="134"/>
+      <c r="F462" s="134"/>
+      <c r="G462" s="134"/>
+      <c r="H462" s="134"/>
+      <c r="I462" s="134"/>
     </row>
     <row r="463" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="28"/>
-      <c r="B463" s="141" t="s">
+      <c r="B463" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="C463" s="141"/>
-      <c r="D463" s="141"/>
-      <c r="E463" s="141"/>
-      <c r="F463" s="141"/>
-      <c r="G463" s="141"/>
-      <c r="H463" s="141"/>
-      <c r="I463" s="141"/>
+      <c r="C463" s="134"/>
+      <c r="D463" s="134"/>
+      <c r="E463" s="134"/>
+      <c r="F463" s="134"/>
+      <c r="G463" s="134"/>
+      <c r="H463" s="134"/>
+      <c r="I463" s="134"/>
     </row>
     <row r="464" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="28">
         <v>7</v>
       </c>
-      <c r="B464" s="141" t="s">
+      <c r="B464" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="C464" s="141"/>
-      <c r="D464" s="141"/>
-      <c r="E464" s="141"/>
-      <c r="F464" s="141"/>
-      <c r="G464" s="141"/>
-      <c r="H464" s="141"/>
-      <c r="I464" s="141"/>
+      <c r="C464" s="134"/>
+      <c r="D464" s="134"/>
+      <c r="E464" s="134"/>
+      <c r="F464" s="134"/>
+      <c r="G464" s="134"/>
+      <c r="H464" s="134"/>
+      <c r="I464" s="134"/>
     </row>
     <row r="465" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="28">
         <v>8</v>
       </c>
-      <c r="B465" s="141" t="s">
+      <c r="B465" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C465" s="141"/>
-      <c r="D465" s="141"/>
-      <c r="E465" s="141"/>
-      <c r="F465" s="141"/>
-      <c r="G465" s="141"/>
-      <c r="H465" s="141"/>
-      <c r="I465" s="141"/>
+      <c r="C465" s="134"/>
+      <c r="D465" s="134"/>
+      <c r="E465" s="134"/>
+      <c r="F465" s="134"/>
+      <c r="G465" s="134"/>
+      <c r="H465" s="134"/>
+      <c r="I465" s="134"/>
     </row>
     <row r="466" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="28"/>
-      <c r="B466" s="141" t="s">
+      <c r="B466" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="C466" s="141"/>
-      <c r="D466" s="141"/>
-      <c r="E466" s="141"/>
-      <c r="F466" s="141"/>
-      <c r="G466" s="141"/>
-      <c r="H466" s="141"/>
-      <c r="I466" s="141"/>
+      <c r="C466" s="134"/>
+      <c r="D466" s="134"/>
+      <c r="E466" s="134"/>
+      <c r="F466" s="134"/>
+      <c r="G466" s="134"/>
+      <c r="H466" s="134"/>
+      <c r="I466" s="134"/>
     </row>
     <row r="467" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="28"/>
-      <c r="B467" s="141" t="s">
+      <c r="B467" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="C467" s="141"/>
-      <c r="D467" s="141"/>
-      <c r="E467" s="141"/>
-      <c r="F467" s="141"/>
-      <c r="G467" s="141"/>
-      <c r="H467" s="141"/>
-      <c r="I467" s="141"/>
+      <c r="C467" s="134"/>
+      <c r="D467" s="134"/>
+      <c r="E467" s="134"/>
+      <c r="F467" s="134"/>
+      <c r="G467" s="134"/>
+      <c r="H467" s="134"/>
+      <c r="I467" s="134"/>
     </row>
     <row r="468" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="28"/>
-      <c r="B468" s="141" t="s">
+      <c r="B468" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C468" s="141"/>
-      <c r="D468" s="141"/>
-      <c r="E468" s="141"/>
-      <c r="F468" s="141"/>
-      <c r="G468" s="141"/>
-      <c r="H468" s="141"/>
-      <c r="I468" s="141"/>
+      <c r="C468" s="134"/>
+      <c r="D468" s="134"/>
+      <c r="E468" s="134"/>
+      <c r="F468" s="134"/>
+      <c r="G468" s="134"/>
+      <c r="H468" s="134"/>
+      <c r="I468" s="134"/>
     </row>
     <row r="469" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="28"/>
-      <c r="B469" s="141" t="s">
+      <c r="B469" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="C469" s="141"/>
-      <c r="D469" s="141"/>
-      <c r="E469" s="141"/>
-      <c r="F469" s="141"/>
-      <c r="G469" s="141"/>
-      <c r="H469" s="141"/>
-      <c r="I469" s="141"/>
+      <c r="C469" s="134"/>
+      <c r="D469" s="134"/>
+      <c r="E469" s="134"/>
+      <c r="F469" s="134"/>
+      <c r="G469" s="134"/>
+      <c r="H469" s="134"/>
+      <c r="I469" s="134"/>
     </row>
     <row r="470" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28"/>
-      <c r="B470" s="141" t="s">
+      <c r="B470" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C470" s="141"/>
-      <c r="D470" s="141"/>
-      <c r="E470" s="141"/>
-      <c r="F470" s="141"/>
-      <c r="G470" s="141"/>
-      <c r="H470" s="141"/>
-      <c r="I470" s="141"/>
+      <c r="C470" s="134"/>
+      <c r="D470" s="134"/>
+      <c r="E470" s="134"/>
+      <c r="F470" s="134"/>
+      <c r="G470" s="134"/>
+      <c r="H470" s="134"/>
+      <c r="I470" s="134"/>
     </row>
     <row r="471" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="28"/>
-      <c r="B471" s="141" t="s">
+      <c r="B471" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C471" s="141"/>
-      <c r="D471" s="141"/>
-      <c r="E471" s="141"/>
-      <c r="F471" s="141"/>
-      <c r="G471" s="141"/>
-      <c r="H471" s="141"/>
-      <c r="I471" s="141"/>
+      <c r="C471" s="134"/>
+      <c r="D471" s="134"/>
+      <c r="E471" s="134"/>
+      <c r="F471" s="134"/>
+      <c r="G471" s="134"/>
+      <c r="H471" s="134"/>
+      <c r="I471" s="134"/>
     </row>
     <row r="472" spans="1:16" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="28">
         <v>9</v>
       </c>
-      <c r="B472" s="141" t="s">
+      <c r="B472" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="C472" s="141"/>
-      <c r="D472" s="141"/>
-      <c r="E472" s="141"/>
-      <c r="F472" s="141"/>
-      <c r="G472" s="141"/>
-      <c r="H472" s="141"/>
-      <c r="I472" s="141"/>
+      <c r="C472" s="134"/>
+      <c r="D472" s="134"/>
+      <c r="E472" s="134"/>
+      <c r="F472" s="134"/>
+      <c r="G472" s="134"/>
+      <c r="H472" s="134"/>
+      <c r="I472" s="134"/>
     </row>
     <row r="473" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="28">
         <v>10</v>
       </c>
-      <c r="B473" s="141" t="s">
+      <c r="B473" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C473" s="141"/>
-      <c r="D473" s="141"/>
-      <c r="E473" s="141"/>
-      <c r="F473" s="141"/>
-      <c r="G473" s="141"/>
-      <c r="H473" s="141"/>
-      <c r="I473" s="141"/>
+      <c r="C473" s="134"/>
+      <c r="D473" s="134"/>
+      <c r="E473" s="134"/>
+      <c r="F473" s="134"/>
+      <c r="G473" s="134"/>
+      <c r="H473" s="134"/>
+      <c r="I473" s="134"/>
     </row>
     <row r="474" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="28"/>
-      <c r="B474" s="141" t="s">
+      <c r="B474" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="C474" s="141"/>
-      <c r="D474" s="141"/>
-      <c r="E474" s="141"/>
-      <c r="F474" s="141"/>
-      <c r="G474" s="141"/>
-      <c r="H474" s="141"/>
-      <c r="I474" s="141"/>
+      <c r="C474" s="134"/>
+      <c r="D474" s="134"/>
+      <c r="E474" s="134"/>
+      <c r="F474" s="134"/>
+      <c r="G474" s="134"/>
+      <c r="H474" s="134"/>
+      <c r="I474" s="134"/>
     </row>
     <row r="475" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="28"/>
-      <c r="B475" s="141" t="s">
+      <c r="B475" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="C475" s="141"/>
-      <c r="D475" s="141"/>
-      <c r="E475" s="141"/>
-      <c r="F475" s="141"/>
-      <c r="G475" s="141"/>
-      <c r="H475" s="141"/>
-      <c r="I475" s="141"/>
+      <c r="C475" s="134"/>
+      <c r="D475" s="134"/>
+      <c r="E475" s="134"/>
+      <c r="F475" s="134"/>
+      <c r="G475" s="134"/>
+      <c r="H475" s="134"/>
+      <c r="I475" s="134"/>
     </row>
     <row r="476" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28"/>
-      <c r="B476" s="141" t="s">
+      <c r="B476" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="C476" s="141"/>
-      <c r="D476" s="141"/>
-      <c r="E476" s="141"/>
-      <c r="F476" s="141"/>
-      <c r="G476" s="141"/>
-      <c r="H476" s="141"/>
-      <c r="I476" s="141"/>
+      <c r="C476" s="134"/>
+      <c r="D476" s="134"/>
+      <c r="E476" s="134"/>
+      <c r="F476" s="134"/>
+      <c r="G476" s="134"/>
+      <c r="H476" s="134"/>
+      <c r="I476" s="134"/>
     </row>
     <row r="477" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="28"/>
-      <c r="B477" s="141" t="s">
+      <c r="B477" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C477" s="141"/>
-      <c r="D477" s="141"/>
-      <c r="E477" s="141"/>
-      <c r="F477" s="141"/>
-      <c r="G477" s="141"/>
-      <c r="H477" s="141"/>
-      <c r="I477" s="141"/>
+      <c r="C477" s="134"/>
+      <c r="D477" s="134"/>
+      <c r="E477" s="134"/>
+      <c r="F477" s="134"/>
+      <c r="G477" s="134"/>
+      <c r="H477" s="134"/>
+      <c r="I477" s="134"/>
     </row>
     <row r="478" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="28">
         <v>11</v>
       </c>
-      <c r="B478" s="141" t="s">
+      <c r="B478" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C478" s="141"/>
-      <c r="D478" s="141"/>
-      <c r="E478" s="141"/>
-      <c r="F478" s="141"/>
-      <c r="G478" s="141"/>
-      <c r="H478" s="141"/>
-      <c r="I478" s="141"/>
+      <c r="C478" s="134"/>
+      <c r="D478" s="134"/>
+      <c r="E478" s="134"/>
+      <c r="F478" s="134"/>
+      <c r="G478" s="134"/>
+      <c r="H478" s="134"/>
+      <c r="I478" s="134"/>
     </row>
     <row r="479" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28"/>
-      <c r="B479" s="141" t="s">
+      <c r="B479" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="C479" s="141"/>
-      <c r="D479" s="141"/>
-      <c r="E479" s="141"/>
-      <c r="F479" s="141"/>
-      <c r="G479" s="141"/>
-      <c r="H479" s="141"/>
-      <c r="I479" s="141"/>
+      <c r="C479" s="134"/>
+      <c r="D479" s="134"/>
+      <c r="E479" s="134"/>
+      <c r="F479" s="134"/>
+      <c r="G479" s="134"/>
+      <c r="H479" s="134"/>
+      <c r="I479" s="134"/>
     </row>
     <row r="480" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28"/>
@@ -9526,236 +9541,236 @@
     </row>
     <row r="481" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="28"/>
-      <c r="B481" s="141" t="s">
+      <c r="B481" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="C481" s="141"/>
-      <c r="D481" s="141"/>
-      <c r="E481" s="141"/>
-      <c r="F481" s="141"/>
-      <c r="G481" s="141"/>
-      <c r="H481" s="141"/>
-      <c r="I481" s="141"/>
+      <c r="C481" s="134"/>
+      <c r="D481" s="134"/>
+      <c r="E481" s="134"/>
+      <c r="F481" s="134"/>
+      <c r="G481" s="134"/>
+      <c r="H481" s="134"/>
+      <c r="I481" s="134"/>
     </row>
     <row r="482" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="28">
         <v>12</v>
       </c>
-      <c r="B482" s="141" t="s">
+      <c r="B482" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C482" s="141"/>
-      <c r="D482" s="141"/>
-      <c r="E482" s="141"/>
-      <c r="F482" s="141"/>
-      <c r="G482" s="141"/>
-      <c r="H482" s="141"/>
-      <c r="I482" s="141"/>
+      <c r="C482" s="134"/>
+      <c r="D482" s="134"/>
+      <c r="E482" s="134"/>
+      <c r="F482" s="134"/>
+      <c r="G482" s="134"/>
+      <c r="H482" s="134"/>
+      <c r="I482" s="134"/>
     </row>
     <row r="483" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="28"/>
-      <c r="B483" s="141" t="s">
+      <c r="B483" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="C483" s="141"/>
-      <c r="D483" s="141"/>
-      <c r="E483" s="141"/>
-      <c r="F483" s="141"/>
-      <c r="G483" s="141"/>
-      <c r="H483" s="141"/>
-      <c r="I483" s="141"/>
+      <c r="C483" s="134"/>
+      <c r="D483" s="134"/>
+      <c r="E483" s="134"/>
+      <c r="F483" s="134"/>
+      <c r="G483" s="134"/>
+      <c r="H483" s="134"/>
+      <c r="I483" s="134"/>
     </row>
     <row r="484" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="28"/>
-      <c r="B484" s="141" t="s">
+      <c r="B484" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="C484" s="141"/>
-      <c r="D484" s="141"/>
-      <c r="E484" s="141"/>
-      <c r="F484" s="141"/>
-      <c r="G484" s="141"/>
-      <c r="H484" s="141"/>
-      <c r="I484" s="141"/>
+      <c r="C484" s="134"/>
+      <c r="D484" s="134"/>
+      <c r="E484" s="134"/>
+      <c r="F484" s="134"/>
+      <c r="G484" s="134"/>
+      <c r="H484" s="134"/>
+      <c r="I484" s="134"/>
     </row>
     <row r="485" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="28"/>
-      <c r="B485" s="141" t="s">
+      <c r="B485" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="C485" s="141"/>
-      <c r="D485" s="141"/>
-      <c r="E485" s="141"/>
-      <c r="F485" s="141"/>
-      <c r="G485" s="141"/>
-      <c r="H485" s="141"/>
-      <c r="I485" s="141"/>
+      <c r="C485" s="134"/>
+      <c r="D485" s="134"/>
+      <c r="E485" s="134"/>
+      <c r="F485" s="134"/>
+      <c r="G485" s="134"/>
+      <c r="H485" s="134"/>
+      <c r="I485" s="134"/>
     </row>
     <row r="486" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="28"/>
-      <c r="B486" s="141" t="s">
+      <c r="B486" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C486" s="141"/>
-      <c r="D486" s="141"/>
-      <c r="E486" s="141"/>
-      <c r="F486" s="141"/>
-      <c r="G486" s="141"/>
-      <c r="H486" s="141"/>
-      <c r="I486" s="141"/>
+      <c r="C486" s="134"/>
+      <c r="D486" s="134"/>
+      <c r="E486" s="134"/>
+      <c r="F486" s="134"/>
+      <c r="G486" s="134"/>
+      <c r="H486" s="134"/>
+      <c r="I486" s="134"/>
     </row>
     <row r="487" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="28">
         <v>13</v>
       </c>
-      <c r="B487" s="141" t="s">
+      <c r="B487" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C487" s="141"/>
-      <c r="D487" s="141"/>
-      <c r="E487" s="141"/>
-      <c r="F487" s="141"/>
-      <c r="G487" s="141"/>
-      <c r="H487" s="141"/>
-      <c r="I487" s="141"/>
+      <c r="C487" s="134"/>
+      <c r="D487" s="134"/>
+      <c r="E487" s="134"/>
+      <c r="F487" s="134"/>
+      <c r="G487" s="134"/>
+      <c r="H487" s="134"/>
+      <c r="I487" s="134"/>
     </row>
     <row r="488" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="28"/>
-      <c r="B488" s="141" t="s">
+      <c r="B488" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="C488" s="141"/>
-      <c r="D488" s="141"/>
-      <c r="E488" s="141"/>
-      <c r="F488" s="141"/>
-      <c r="G488" s="141"/>
-      <c r="H488" s="141"/>
-      <c r="I488" s="141"/>
+      <c r="C488" s="134"/>
+      <c r="D488" s="134"/>
+      <c r="E488" s="134"/>
+      <c r="F488" s="134"/>
+      <c r="G488" s="134"/>
+      <c r="H488" s="134"/>
+      <c r="I488" s="134"/>
     </row>
     <row r="489" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="28"/>
-      <c r="B489" s="141" t="s">
+      <c r="B489" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="C489" s="141"/>
-      <c r="D489" s="141"/>
-      <c r="E489" s="141"/>
-      <c r="F489" s="141"/>
-      <c r="G489" s="141"/>
-      <c r="H489" s="141"/>
-      <c r="I489" s="141"/>
+      <c r="C489" s="134"/>
+      <c r="D489" s="134"/>
+      <c r="E489" s="134"/>
+      <c r="F489" s="134"/>
+      <c r="G489" s="134"/>
+      <c r="H489" s="134"/>
+      <c r="I489" s="134"/>
     </row>
     <row r="490" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="28">
         <v>14</v>
       </c>
-      <c r="B490" s="141" t="s">
+      <c r="B490" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="C490" s="141"/>
-      <c r="D490" s="141"/>
-      <c r="E490" s="141"/>
-      <c r="F490" s="141"/>
-      <c r="G490" s="141"/>
-      <c r="H490" s="141"/>
-      <c r="I490" s="141"/>
+      <c r="C490" s="134"/>
+      <c r="D490" s="134"/>
+      <c r="E490" s="134"/>
+      <c r="F490" s="134"/>
+      <c r="G490" s="134"/>
+      <c r="H490" s="134"/>
+      <c r="I490" s="134"/>
     </row>
     <row r="491" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="28"/>
-      <c r="B491" s="141" t="s">
+      <c r="B491" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="C491" s="141"/>
-      <c r="D491" s="141"/>
-      <c r="E491" s="141"/>
-      <c r="F491" s="141"/>
-      <c r="G491" s="141"/>
-      <c r="H491" s="141"/>
-      <c r="I491" s="141"/>
+      <c r="C491" s="134"/>
+      <c r="D491" s="134"/>
+      <c r="E491" s="134"/>
+      <c r="F491" s="134"/>
+      <c r="G491" s="134"/>
+      <c r="H491" s="134"/>
+      <c r="I491" s="134"/>
     </row>
     <row r="492" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="28"/>
-      <c r="B492" s="141" t="s">
+      <c r="B492" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="C492" s="141"/>
-      <c r="D492" s="141"/>
-      <c r="E492" s="141"/>
-      <c r="F492" s="141"/>
-      <c r="G492" s="141"/>
-      <c r="H492" s="141"/>
-      <c r="I492" s="141"/>
+      <c r="C492" s="134"/>
+      <c r="D492" s="134"/>
+      <c r="E492" s="134"/>
+      <c r="F492" s="134"/>
+      <c r="G492" s="134"/>
+      <c r="H492" s="134"/>
+      <c r="I492" s="134"/>
     </row>
     <row r="493" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="28"/>
-      <c r="B493" s="141" t="s">
+      <c r="B493" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="C493" s="141"/>
-      <c r="D493" s="141"/>
-      <c r="E493" s="141"/>
-      <c r="F493" s="141"/>
-      <c r="G493" s="141"/>
-      <c r="H493" s="141"/>
-      <c r="I493" s="141"/>
+      <c r="C493" s="134"/>
+      <c r="D493" s="134"/>
+      <c r="E493" s="134"/>
+      <c r="F493" s="134"/>
+      <c r="G493" s="134"/>
+      <c r="H493" s="134"/>
+      <c r="I493" s="134"/>
     </row>
     <row r="494" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="28"/>
-      <c r="B494" s="141" t="s">
+      <c r="B494" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="C494" s="141"/>
-      <c r="D494" s="141"/>
-      <c r="E494" s="141"/>
-      <c r="F494" s="141"/>
-      <c r="G494" s="141"/>
-      <c r="H494" s="141"/>
-      <c r="I494" s="141"/>
+      <c r="C494" s="134"/>
+      <c r="D494" s="134"/>
+      <c r="E494" s="134"/>
+      <c r="F494" s="134"/>
+      <c r="G494" s="134"/>
+      <c r="H494" s="134"/>
+      <c r="I494" s="134"/>
     </row>
     <row r="495" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="28">
         <v>15</v>
       </c>
-      <c r="B495" s="141" t="s">
+      <c r="B495" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="C495" s="141"/>
-      <c r="D495" s="141"/>
-      <c r="E495" s="141"/>
-      <c r="F495" s="141"/>
-      <c r="G495" s="141"/>
-      <c r="H495" s="141"/>
-      <c r="I495" s="141"/>
+      <c r="C495" s="134"/>
+      <c r="D495" s="134"/>
+      <c r="E495" s="134"/>
+      <c r="F495" s="134"/>
+      <c r="G495" s="134"/>
+      <c r="H495" s="134"/>
+      <c r="I495" s="134"/>
     </row>
     <row r="496" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="28">
         <v>16</v>
       </c>
-      <c r="B496" s="141" t="s">
+      <c r="B496" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="C496" s="141"/>
-      <c r="D496" s="141"/>
-      <c r="E496" s="141"/>
-      <c r="F496" s="141"/>
-      <c r="G496" s="141"/>
-      <c r="H496" s="141"/>
-      <c r="I496" s="141"/>
+      <c r="C496" s="134"/>
+      <c r="D496" s="134"/>
+      <c r="E496" s="134"/>
+      <c r="F496" s="134"/>
+      <c r="G496" s="134"/>
+      <c r="H496" s="134"/>
+      <c r="I496" s="134"/>
     </row>
     <row r="497" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="28">
         <v>17</v>
       </c>
-      <c r="B497" s="141" t="s">
+      <c r="B497" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="C497" s="141"/>
-      <c r="D497" s="141"/>
-      <c r="E497" s="141"/>
-      <c r="F497" s="141"/>
-      <c r="G497" s="141"/>
-      <c r="H497" s="141"/>
-      <c r="I497" s="141"/>
+      <c r="C497" s="134"/>
+      <c r="D497" s="134"/>
+      <c r="E497" s="134"/>
+      <c r="F497" s="134"/>
+      <c r="G497" s="134"/>
+      <c r="H497" s="134"/>
+      <c r="I497" s="134"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="52"/>
@@ -9774,6 +9789,7 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B27:H29"/>
     <mergeCell ref="H410:H411"/>
     <mergeCell ref="B377:I377"/>
     <mergeCell ref="B369:I370"/>
@@ -9784,8 +9800,10 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D398:E398"/>
     <mergeCell ref="B395:I395"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D397:E397"/>
     <mergeCell ref="B363:I366"/>
     <mergeCell ref="A61:I62"/>
     <mergeCell ref="A68:I69"/>
@@ -9804,6 +9822,21 @@
     <mergeCell ref="B457:I457"/>
     <mergeCell ref="F450:G450"/>
     <mergeCell ref="B423:I424"/>
+    <mergeCell ref="B418:G418"/>
+    <mergeCell ref="B419:G419"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="B410:C411"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="D412:E412"/>
+    <mergeCell ref="F412:G412"/>
+    <mergeCell ref="F413:G413"/>
+    <mergeCell ref="D413:E413"/>
+    <mergeCell ref="D414:E414"/>
+    <mergeCell ref="F414:G414"/>
+    <mergeCell ref="D415:E415"/>
     <mergeCell ref="B471:I471"/>
     <mergeCell ref="B458:I458"/>
     <mergeCell ref="B459:I459"/>
@@ -9843,7 +9876,6 @@
     <mergeCell ref="B494:I494"/>
     <mergeCell ref="B495:I495"/>
     <mergeCell ref="B496:I496"/>
-    <mergeCell ref="M56:T59"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="M330:T330"/>
     <mergeCell ref="M272:T272"/>
@@ -9861,33 +9893,16 @@
     <mergeCell ref="A53:I54"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B418:G418"/>
-    <mergeCell ref="B419:G419"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="B415:C415"/>
-    <mergeCell ref="B416:C416"/>
-    <mergeCell ref="B410:C411"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="D412:E412"/>
-    <mergeCell ref="F412:G412"/>
-    <mergeCell ref="F413:G413"/>
-    <mergeCell ref="D413:E413"/>
-    <mergeCell ref="D414:E414"/>
-    <mergeCell ref="F414:G414"/>
-    <mergeCell ref="D415:E415"/>
+    <mergeCell ref="B64:I64"/>
     <mergeCell ref="F415:G415"/>
     <mergeCell ref="D416:E416"/>
     <mergeCell ref="F417:G417"/>
     <mergeCell ref="F416:G416"/>
     <mergeCell ref="D417:E417"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="F398:G398"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D397:E397"/>
     <mergeCell ref="D410:E411"/>
     <mergeCell ref="F410:G411"/>
     <mergeCell ref="B417:C417"/>
+    <mergeCell ref="M56:T59"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -10018,7 +10033,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10791,45 +10806,45 @@
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
@@ -10860,10 +10875,10 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="214"/>
       <c r="D28" s="215"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
       <c r="I28" s="216"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -10891,10 +10906,10 @@
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="214"/>
       <c r="D31" s="215"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
       <c r="I31" s="216"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -10922,10 +10937,10 @@
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="214"/>
       <c r="D34" s="215"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
       <c r="I34" s="216"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
@@ -10953,10 +10968,10 @@
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="214"/>
       <c r="D37" s="215"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
       <c r="I37" s="216"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
@@ -10972,31 +10987,31 @@
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="138" t="s">
+      <c r="L39" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="S39" s="138"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="138" t="s">
+      <c r="L42" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="138"/>
-      <c r="Q42" s="138"/>
-      <c r="R42" s="138"/>
-      <c r="S42" s="138"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11037,16 +11052,16 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
@@ -11143,10 +11158,10 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" s="214"/>
       <c r="D66" s="215"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
       <c r="I66" s="216"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -11174,10 +11189,10 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" s="214"/>
       <c r="D69" s="215"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
       <c r="I69" s="216"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -11272,7 +11287,7 @@
       </c>
       <c r="G91" s="205">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
       <c r="H91" s="205"/>
       <c r="I91" s="205"/>
@@ -11539,45 +11554,45 @@
       <c r="I20" s="224"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
@@ -11755,16 +11770,16 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
@@ -11988,14 +12003,14 @@
       </c>
       <c r="G91" s="205">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
       <c r="H91" s="205"/>
       <c r="I91" s="205"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -12070,7 +12085,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12155,15 +12170,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12188,15 +12203,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12237,16 +12252,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12336,16 +12351,16 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="161" t="s">
@@ -12390,16 +12405,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12413,16 +12428,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12547,116 +12562,116 @@
       <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="137"/>
-      <c r="B82" s="137"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="130"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="137"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="130"/>
+      <c r="G83" s="130"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="130"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="137"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="137"/>
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="137"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="130"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="137"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="137"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="130"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="137"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="137"/>
-      <c r="I89" s="137"/>
+      <c r="A89" s="130"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="137"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
+      <c r="A90" s="130"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -12704,7 +12719,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12789,15 +12804,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12822,15 +12837,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12871,16 +12886,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12970,16 +12985,16 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="161" t="s">
@@ -13024,16 +13039,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -13047,16 +13062,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -13181,116 +13196,116 @@
       <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="137"/>
-      <c r="B82" s="137"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="130"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="137"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="130"/>
+      <c r="G83" s="130"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="130"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="137"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="137"/>
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="137"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="130"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="137"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="137"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="130"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="137"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="137"/>
-      <c r="I89" s="137"/>
+      <c r="A89" s="130"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="137"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
+      <c r="A90" s="130"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
